--- a/biology/Botanique/Chamaesyce_hypericifolia/Chamaesyce_hypericifolia.xlsx
+++ b/biology/Botanique/Chamaesyce_hypericifolia/Chamaesyce_hypericifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaesyce hypericifolia, l'Euphorbe à feuilles de Millepertuis, est une espèce de plantes à fleurs de la famille des Euphorbiaceae et du genre Chamaesyce. Elle est trouvée en Amérique, incluant les Caraïbes, en Asie (Inde) et en Afrique du Sud.
 Sa floraison blanche s'étale du printemps à l'automne. 
@@ -512,9 +524,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les parties de la plante sont toxiques, notamment la sève blanche qui peut causer une irritation de la peau ou des yeux chez l'Homme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les parties de la plante sont toxiques, notamment la sève blanche qui peut causer une irritation de la peau ou des yeux chez l'Homme.
 </t>
         </is>
       </c>
